--- a/homes.xlsx
+++ b/homes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8435,106 +8435,26 @@
       <c r="O63" t="n">
         <v>9361041061</v>
       </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI63" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14338,106 +14258,26 @@
       <c r="O109" t="n">
         <v>9122776521</v>
       </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI109" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -17790,106 +17630,26 @@
       <c r="O135" t="n">
         <v>9931980482</v>
       </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI135" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17961,106 +17721,26 @@
       <c r="O136" t="n">
         <v>9931980482</v>
       </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI136" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -18132,106 +17812,26 @@
       <c r="O137" t="n">
         <v>9931980482</v>
       </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI137" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -18303,106 +17903,26 @@
       <c r="O138" t="n">
         <v>9931980482</v>
       </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI138" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -18608,106 +18128,26 @@
       <c r="O140" t="n">
         <v>9931980482</v>
       </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="V140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="W140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="X140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Y140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AA140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AB140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AC140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AD140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AE140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AF140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AG140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AH140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
-      <c r="AI140" t="inlineStr">
-        <is>
-          <t>[nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan, nan]</t>
-        </is>
-      </c>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
